--- a/biology/Botanique/Hemiandra/Hemiandra.xlsx
+++ b/biology/Botanique/Hemiandra/Hemiandra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemiandra est un genre de plantes de la famille des Lamiaceae originaires d'Australie. 
 Ce sont des plantes rampantes ou de petits arbustes proches des Westringia. Les fleurs rouge, lilas, rose ou blanches sont à 2 lèvres, la lèvre inférieure étant élargie et tachetée. Les feuilles étroites, raides se terminent souvent en aiguillon.
@@ -512,9 +524,11 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (13 Feb 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (13 Feb 2012) :
 Hemiandra coccinea O.H.Sarg. (1927)
 Hemiandra gardneri O.H.Sarg. (1927)
 Hemiandra incana Bartl. (1845)
@@ -522,7 +536,7 @@
 Hemiandra pungens R.Br. (1810)
 Hemiandra rubriflora O.H.Sarg. (1927)
 Hemiandra rutilans O.H.Sarg. (1927)
-Selon NCBI  (13 Feb 2012)[2] :
+Selon NCBI  (13 Feb 2012) :
 Hemiandra pungens
 Selon [réf. nécessaire]:
 Hemiandra brevifolia
